--- a/solitude_time.xlsx
+++ b/solitude_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\03_DESIGN\01_KUA\02_修論研究\01_ゼミグループ活動\251013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18845513-56DE-49FC-83F5-009823F9FF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3E715-BA00-4959-A090-94EFF5EAA260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{373A5C06-DA8A-4F19-9F5E-73CE7A1115D2}"/>
   </bookViews>
@@ -76,57 +76,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特に予定のない土日、家の近くの公園でランニングをしたり、サウナに行ってととのう時間。
-よりエネルギッシュになるために、あえてリラックス・リフレッシュする意識を持つ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>週末の深夜、家の前を流れる川の堤防で一服。
-誰もない、誰からも干渉されない自分だけの時間。
-この一本が、たまらなくうまい。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>知らない土地に出張したとき、誰も自分を知らない町を歩く。
-見知らぬ人々の営みを思い描きながら歩くその瞬間に、不思議な楽しさを感じる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>毎週日曜日、お酒を飲みながら、
-ひとりで「ちびまる子ちゃん」を観る。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レモンサワーを頼む。
-普段はレモンは１個だけしか絞らないけど、今日は2個絞ろうかなぁ。
-だって今日は､うるめが美味しそうだから。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休日の前夜、燻した６Pチーズと堅あげポテト｡
-下戸なのに、ウイスキーロック
-いつのまにか、夢の中</t>
-    <rPh sb="45" eb="46">
+    <t>有給休暇を取ったある日、わたしは車を走らせていた。
+雨が降るなか､立ち寄ったケンタッキーフライドチキンで､_x000B_チキンとポテトを買い、車に戻ってラジオをかけて食べた。誰にも気を遣わず､何の義務もなく､ただ雨とラジオの音とチキンの香りに包まれた時間。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休日の前夜、燻した６Pチーズと堅あげポテト　下戸なのに、ウイスキーロック　いつのまにか、夢の中</t>
+    <rPh sb="44" eb="45">
       <t>ユメ</t>
     </rPh>
-    <rPh sb="47" eb="48">
+    <rPh sb="46" eb="47">
       <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>有給休暇を取ったある日、わたしは車を走らせていた。
-雨が降るなか､立ち寄ったケンタッキーフライドチキンで､_x000B_チキンとポテトを買い、車に戻ってラジオをかけて食べた。誰にも気を遣わず､何の義務もなく､ただ雨とラジオの音とチキンの香りに包まれた時間。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>何も買わない。
-何も食べない。
-何も生まれない。
-ただ、流れるその時を伸ばして、歩きつづける。
-休日の昼を、所有している。
-LINEはときどき鳴っている。
-妻や子供のことを思い出しながら、新書に手を伸ばす。</t>
+    <t>何も買わない。何も食べない。何も生まれない。ただ、流れるその時を伸ばして、歩きつづける。休日の昼を、所有している。LINEはときどき鳴っている。妻や子供のことを思い出しながら、新書に手を伸ばす。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レモンサワーを頼む。普段はレモンは１個だけしか絞らないけど、今日は2個絞ろうかなぁ。だって今日は､うるめが美味しそうだから。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎週日曜日、お酒を飲みながら、ひとりで「ちびまる子ちゃん」を観る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に予定のない土日、家の近くの公園でランニングをしたり、サウナに行ってととのう時間。よりエネルギッシュになるために、あえてリラックス・リフレッシュする意識を持つ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週末の深夜、家の前を流れる川の堤防で一服。誰もない、誰からも干渉されない自分だけの時間。この一本が、たまらなくうまい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知らない土地に出張したとき、誰も自分を知らない町を歩く。見知らぬ人々の営みを思い描きながら歩くその瞬間に、不思議な楽しさを感じる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -507,7 +492,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -528,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -536,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -544,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -552,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -560,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -568,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -576,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -584,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
